--- a/biology/Botanique/Comptonie_voyageuse/Comptonie_voyageuse.xlsx
+++ b/biology/Botanique/Comptonie_voyageuse/Comptonie_voyageuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Comptonia peregrina
 La Comptonie voyageuse (Comptonia peregrina) est une espèce de plante à fleurs de la famille des Myricaceae. C'est la seule espèce existante (vivante) du genre Comptonia, bien qu'un certain nombre d'espèces éteintes soient placées dans le genre. Comptonia peregrina est originaire de l'est de l'Amérique du Nord, du sud du Québec, à l'est jusqu'en Nouvelle-Écosse, au sud jusqu'à l'extrême nord de la Géorgie et à l'ouest jusqu'au Minnesota. 
